--- a/B5/Mathe/2024/B1/7er/Prozente/B1.xlsx
+++ b/B5/Mathe/2024/B1/7er/Prozente/B1.xlsx
@@ -20,23 +20,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t xml:space="preserve">HA 21.05</t>
   </si>
   <si>
+    <t xml:space="preserve">KA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sagesh</t>
   </si>
   <si>
     <t xml:space="preserve">Shatheesh</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sid</t>
   </si>
   <si>
     <t xml:space="preserve">Göttsche</t>
   </si>
   <si>
+    <t xml:space="preserve">1-</t>
+  </si>
+  <si>
     <t xml:space="preserve">Max</t>
   </si>
   <si>
@@ -55,12 +64,18 @@
     <t xml:space="preserve">Runkel</t>
   </si>
   <si>
+    <t xml:space="preserve">4+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Margarita</t>
   </si>
   <si>
     <t xml:space="preserve">Derevianko</t>
   </si>
   <si>
+    <t xml:space="preserve">6(im Unterricht nicht da)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Luciano</t>
   </si>
   <si>
@@ -79,6 +94,9 @@
     <t xml:space="preserve">Charalambis</t>
   </si>
   <si>
+    <t xml:space="preserve">krank</t>
+  </si>
+  <si>
     <t xml:space="preserve">Isabella</t>
   </si>
   <si>
@@ -95,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Seim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-</t>
   </si>
   <si>
     <t xml:space="preserve">Alma</t>
@@ -119,8 +140,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -187,12 +209,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -213,137 +239,185 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:C17"/>
+  <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>-4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/B5/Mathe/2024/B1/7er/Prozente/B1.xlsx
+++ b/B5/Mathe/2024/B1/7er/Prozente/B1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t xml:space="preserve">HA 21.05</t>
   </si>
@@ -94,46 +94,49 @@
     <t xml:space="preserve">Charalambis</t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zettelmeier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ronya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Barazanchi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaskas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abdulkader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singh</t>
+  </si>
+  <si>
     <t xml:space="preserve">krank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zettelmeier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al-Barazanchi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaskas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdulkader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Singh</t>
   </si>
 </sst>
 </file>
@@ -242,16 +245,16 @@
   <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -417,7 +420,7 @@
         <v>37</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
